--- a/biology/Zoologie/Dysdera/Dysdera.xlsx
+++ b/biology/Zoologie/Dysdera/Dysdera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dysdera est un genre d'araignées aranéomorphes de la famille des Dysderidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dysdera est un genre d'araignées aranéomorphes de la famille des Dysderidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe, dans le Nord de l'Afrique, au Moyen-Orient et en Asie centrale[1] sauf Dysdera crocata qui est presque cosmopolite par introduction.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe, dans le Nord de l'Afrique, au Moyen-Orient et en Asie centrale sauf Dysdera crocata qui est presque cosmopolite par introduction.
 Dysdera crocata,  Dysdera erythrina ,  Dysdera fuscipes ,  Dysdera kulczynskii ,  Dysdera nicaeensis,  Dysdera rudis ,  Dysdera scabricula ,  Dysdera subsquarrosa  se rencontrent en France.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 17/05/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 17/05/2024) :
 Dysdera aberrans Gasparo, 2010
 Dysdera achaemenes Zamani, Marusik &amp; Szűts, 2023
 Dysdera aciculata Simon, 1882
@@ -862,7 +878,7 @@
 Dysdera yozgat Deeleman-Reinhold, 1988
 Dysdera zarudnyi Charitonov, 1956
 Dysdera zonsteini Dimitrov, 2021
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Dysdera dilatata Zhang, Sun &amp; Zhang, 1994</t>
         </is>
       </c>
@@ -891,10 +907,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Latreille en 1804.
-Dysderella[3] a été placé en synonymie par Bellvert, Dimitrov, Zamani et Arnedo en 2024[4].
+Dysderella a été placé en synonymie par Bellvert, Dimitrov, Zamani et Arnedo en 2024.
 </t>
         </is>
       </c>
@@ -923,7 +941,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Latreille, 1804 : « Tableau méthodique des Insectes. » Nouveau Dictionnaire d'Histoire Naturelle, Paris, vol. 24, p. 129-295.</t>
         </is>
